--- a/Logs/Viies nädal.xlsx
+++ b/Logs/Viies nädal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\IT-arendus2---Original\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6927AB1-C3F7-4C42-B0A7-60AFC10251B2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A30BFB5-88AE-432D-905B-06F8FE8C18F4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3048" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Class</t>
-  </si>
-  <si>
-    <t>Text</t>
   </si>
   <si>
     <t>Total Time:</t>
@@ -466,6 +463,15 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -507,15 +513,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -834,7 +831,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,62 +849,62 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="35">
         <v>43528</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="36"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="36"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="39"/>
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
@@ -987,7 +984,7 @@
         <v>85</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -1014,10 +1011,10 @@
         <v>169.99999999999994</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="8"/>
@@ -1043,7 +1040,7 @@
         <v>285</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1070,7 +1067,7 @@
         <v>285.00000000000006</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1124,7 +1121,7 @@
         <v>315.00000000000011</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1189,13 +1186,13 @@
       <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
+      <c r="A18" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="21">
         <f>SUM(F7:F17)</f>
         <v>1630</v>

--- a/Logs/Viies nädal.xlsx
+++ b/Logs/Viies nädal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\IT-arendus2---Original\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A30BFB5-88AE-432D-905B-06F8FE8C18F4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6927AB1-C3F7-4C42-B0A7-60AFC10251B2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3048" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Class</t>
+  </si>
+  <si>
+    <t>Text</t>
   </si>
   <si>
     <t>Total Time:</t>
@@ -463,6 +466,48 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -471,48 +516,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,7 +834,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,62 +852,62 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="32">
         <v>43528</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="36"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="39"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36"/>
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
@@ -984,7 +987,7 @@
         <v>85</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -1011,10 +1014,10 @@
         <v>169.99999999999994</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="8"/>
@@ -1040,7 +1043,7 @@
         <v>285</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1067,7 +1070,7 @@
         <v>285.00000000000006</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1121,7 +1124,7 @@
         <v>315.00000000000011</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1186,13 +1189,13 @@
       <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
+      <c r="A18" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="21">
         <f>SUM(F7:F17)</f>
         <v>1630</v>
